--- a/2.1.xlsx
+++ b/2.1.xlsx
@@ -428,9 +428,9 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -738,11 +738,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -766,6 +769,7 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
